--- a/conception/maquettes/arborescence.xlsx
+++ b/conception/maquettes/arborescence.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
   <si>
     <t>Accueil</t>
   </si>
@@ -185,10 +185,16 @@
     <t>Supprimer un événement</t>
   </si>
   <si>
-    <t>Formulaire dde paiement</t>
-  </si>
-  <si>
     <t>Redirection vers une page générée</t>
+  </si>
+  <si>
+    <t>Prix de l'inscription à l'épreuve</t>
+  </si>
+  <si>
+    <t>Détail d'un événement</t>
+  </si>
+  <si>
+    <t>Formulaire de paiement</t>
   </si>
 </sst>
 </file>
@@ -296,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -312,6 +318,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,7 +674,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:XFD1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,12 +725,12 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -763,7 +770,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="A1:XFD1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +790,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -815,7 +822,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +874,7 @@
   <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +882,7 @@
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -892,7 +899,7 @@
         <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -900,7 +907,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +920,7 @@
   <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1011,7 @@
   <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="A1:XFD1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1055,7 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:XFD1048576"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1128,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,14 +1180,14 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -1236,6 +1243,9 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
+      <c r="E8" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1247,7 +1257,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1309,7 @@
   <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
